--- a/docs/aux_files/Canary MCP - CanaryTagList.xlsx
+++ b/docs/aux_files/Canary MCP - CanaryTagList.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://secilonline-my.sharepoint.com/personal/moiron_secil_pt/Documents/Office Stuff/Digital Transformation/UNS/3 - Flying solo/Hackaton/Canary MCP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\BD-Canary-MCP\docs\aux_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="10_ncr:100_{019A2748-10A8-4024-AF85-15B80B8F2817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{141C0B4C-8BAE-4DDD-8F4C-0A5A6D580DB1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9922EA-FC08-435F-A1A8-908E5CED7B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D91D03F0-D184-4A13-8946-AE808C3AD1D6}"/>
+    <workbookView xWindow="3990" yWindow="3030" windowWidth="28800" windowHeight="15370" xr2:uid="{D91D03F0-D184-4A13-8946-AE808C3AD1D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,66 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
-    <t>&lt;LOCALHOST&gt;SECIL.Portugal.Cement.Maceira.400 - Clinker Production.431 - Kiln.Normalised.Asset.Running</t>
-  </si>
-  <si>
-    <t>&lt;LOCALHOST&gt;SECIL.Portugal.Cement.Maceira.400 - Clinker Production.431 - Kiln.Normalised.Asset.Alternative Fuel Rate.Value</t>
-  </si>
-  <si>
-    <t>&lt;LOCALHOST&gt;SECIL.Portugal.Cement.Maceira.400 - Clinker Production.431 - Kiln.Normalised.Asset.Equipment.Alternative Fuels Feeder 01.Feed</t>
-  </si>
-  <si>
-    <t>&lt;LOCALHOST&gt;SECIL.Portugal.Cement.Maceira.400 - Clinker Production.431 - Kiln.Normalised.Asset.Equipment.Alternative Fuels Feeder 01.Running</t>
-  </si>
-  <si>
-    <t>&lt;LOCALHOST&gt;SECIL.Portugal.Cement.Maceira.400 - Clinker Production.431 - Kiln.Normalised.Asset.Equipment.Alternative Fuels Feeder 01.Selected</t>
-  </si>
-  <si>
-    <t>&lt;LOCALHOST&gt;SECIL.Portugal.Cement.Maceira.400 - Clinker Production.431 - Kiln.Normalised.Asset.Equipment.Alternative Fuels Feeder 01.Input Material.Feed to Production Factor</t>
-  </si>
-  <si>
-    <t>&lt;LOCALHOST&gt;SECIL.Portugal.Cement.Maceira.400 - Clinker Production.431 - Kiln.Normalised.Asset.Equipment.LCC Feeder 01.Feed</t>
-  </si>
-  <si>
-    <t>&lt;LOCALHOST&gt;SECIL.Portugal.Cement.Maceira.400 - Clinker Production.431 - Kiln.Normalised.Asset.Equipment.LCC Feeder 01.Running</t>
-  </si>
-  <si>
-    <t>&lt;LOCALHOST&gt;SECIL.Portugal.Cement.Maceira.400 - Clinker Production.431 - Kiln.Normalised.Asset.Equipment.LCC Feeder 01.Selected</t>
-  </si>
-  <si>
-    <t>&lt;LOCALHOST&gt;SECIL.Portugal.Cement.Maceira.400 - Clinker Production.431 - Kiln.Normalised.Asset.Equipment.LCC Feeder 01.Input Material.Feed to Production Factor</t>
-  </si>
-  <si>
-    <t>&lt;LOCALHOST&gt;SECIL.Portugal.Cement.Maceira.400 - Clinker Production.432 - Kiln.Normalised.Asset.Running</t>
-  </si>
-  <si>
-    <t>&lt;LOCALHOST&gt;SECIL.Portugal.Cement.Maceira.400 - Clinker Production.432 - Kiln.Normalised.Asset.Alternative Fuel Rate.Value</t>
-  </si>
-  <si>
-    <t>&lt;LOCALHOST&gt;SECIL.Portugal.Cement.Maceira.400 - Clinker Production.432 - Kiln.Normalised.Asset.Equipment.Alternative Fuels Feeder 01.Feed</t>
-  </si>
-  <si>
-    <t>&lt;LOCALHOST&gt;SECIL.Portugal.Cement.Maceira.400 - Clinker Production.432 - Kiln.Normalised.Asset.Equipment.Alternative Fuels Feeder 01.Running</t>
-  </si>
-  <si>
-    <t>&lt;LOCALHOST&gt;SECIL.Portugal.Cement.Maceira.400 - Clinker Production.432 - Kiln.Normalised.Asset.Equipment.Alternative Fuels Feeder 01.Selected</t>
-  </si>
-  <si>
-    <t>&lt;LOCALHOST&gt;SECIL.Portugal.Cement.Maceira.400 - Clinker Production.432 - Kiln.Normalised.Asset.Equipment.Alternative Fuels Feeder 01.Input Material.Feed to Production Factor</t>
-  </si>
-  <si>
-    <t>&lt;LOCALHOST&gt;SECIL.Portugal.Cement.Maceira.400 - Clinker Production.432 - Kiln.Normalised.Asset.Equipment.LCC Feeder 01.Feed</t>
-  </si>
-  <si>
-    <t>&lt;LOCALHOST&gt;SECIL.Portugal.Cement.Maceira.400 - Clinker Production.432 - Kiln.Normalised.Asset.Equipment.LCC Feeder 01.Running</t>
-  </si>
-  <si>
-    <t>&lt;LOCALHOST&gt;SECIL.Portugal.Cement.Maceira.400 - Clinker Production.432 - Kiln.Normalised.Asset.Equipment.LCC Feeder 01.Selected</t>
-  </si>
-  <si>
-    <t>&lt;LOCALHOST&gt;SECIL.Portugal.Cement.Maceira.400 - Clinker Production.432 - Kiln.Normalised.Asset.Equipment.LCC Feeder 01.Input Material.Feed to Production Factor</t>
-  </si>
-  <si>
     <t>Maceira Kiln 5 Producing</t>
   </si>
   <si>
@@ -174,24 +113,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>&lt;LOCALHOST&gt;SECIL.Portugal.Cement.Maceira.400 - Clinker Production.432 - Kiln.Normalised.Analog.FO6PT_6387.Value</t>
-  </si>
-  <si>
-    <t>&lt;LOCALHOST&gt;SECIL.Portugal.Cement.Maceira.400 - Clinker Production.432 - Kiln.Normalised.Analog.FO6PT_6368.Value</t>
-  </si>
-  <si>
-    <t>&lt;LOCALHOST&gt;SECIL.Portugal.Cement.Maceira.400 - Clinker Production.432 - Kiln.Normalised.Analog.FO6PT_6372.Value</t>
-  </si>
-  <si>
-    <t>&lt;LOCALHOST&gt;SECIL.Portugal.Cement.Maceira.400 - Clinker Production.431 - Kiln.Normalised.Analog.FO5PT_387.Value</t>
-  </si>
-  <si>
-    <t>&lt;LOCALHOST&gt;SECIL.Portugal.Cement.Maceira.400 - Clinker Production.431 - Kiln.Normalised.Analog.FO5PT_368.Value</t>
-  </si>
-  <si>
-    <t>&lt;LOCALHOST&gt;SECIL.Portugal.Cement.Maceira.400 - Clinker Production.431 - Kiln.Normalised.Analog.FO5PT_372.Value</t>
-  </si>
-  <si>
     <t>mmH2O</t>
   </si>
   <si>
@@ -211,6 +132,84 @@
   </si>
   <si>
     <t>Maceira Kiln 5 Draught Fan Inlet Pressure</t>
+  </si>
+  <si>
+    <t>SECIL.Portugal.Cement.Maceira.400 - Clinker Production.431 - Kiln.Normalised.Asset.Running</t>
+  </si>
+  <si>
+    <t>SECIL.Portugal.Cement.Maceira.400 - Clinker Production.431 - Kiln.Normalised.Asset.Alternative Fuel Rate.Value</t>
+  </si>
+  <si>
+    <t>SECIL.Portugal.Cement.Maceira.400 - Clinker Production.431 - Kiln.Normalised.Asset.Equipment.Alternative Fuels Feeder 01.Feed</t>
+  </si>
+  <si>
+    <t>SECIL.Portugal.Cement.Maceira.400 - Clinker Production.431 - Kiln.Normalised.Asset.Equipment.Alternative Fuels Feeder 01.Running</t>
+  </si>
+  <si>
+    <t>SECIL.Portugal.Cement.Maceira.400 - Clinker Production.431 - Kiln.Normalised.Asset.Equipment.Alternative Fuels Feeder 01.Selected</t>
+  </si>
+  <si>
+    <t>SECIL.Portugal.Cement.Maceira.400 - Clinker Production.431 - Kiln.Normalised.Asset.Equipment.Alternative Fuels Feeder 01.Input Material.Feed to Production Factor</t>
+  </si>
+  <si>
+    <t>SECIL.Portugal.Cement.Maceira.400 - Clinker Production.431 - Kiln.Normalised.Asset.Equipment.LCC Feeder 01.Feed</t>
+  </si>
+  <si>
+    <t>SECIL.Portugal.Cement.Maceira.400 - Clinker Production.431 - Kiln.Normalised.Asset.Equipment.LCC Feeder 01.Running</t>
+  </si>
+  <si>
+    <t>SECIL.Portugal.Cement.Maceira.400 - Clinker Production.431 - Kiln.Normalised.Asset.Equipment.LCC Feeder 01.Selected</t>
+  </si>
+  <si>
+    <t>SECIL.Portugal.Cement.Maceira.400 - Clinker Production.431 - Kiln.Normalised.Asset.Equipment.LCC Feeder 01.Input Material.Feed to Production Factor</t>
+  </si>
+  <si>
+    <t>SECIL.Portugal.Cement.Maceira.400 - Clinker Production.432 - Kiln.Normalised.Asset.Running</t>
+  </si>
+  <si>
+    <t>SECIL.Portugal.Cement.Maceira.400 - Clinker Production.432 - Kiln.Normalised.Asset.Alternative Fuel Rate.Value</t>
+  </si>
+  <si>
+    <t>SECIL.Portugal.Cement.Maceira.400 - Clinker Production.432 - Kiln.Normalised.Asset.Equipment.Alternative Fuels Feeder 01.Feed</t>
+  </si>
+  <si>
+    <t>SECIL.Portugal.Cement.Maceira.400 - Clinker Production.432 - Kiln.Normalised.Asset.Equipment.Alternative Fuels Feeder 01.Running</t>
+  </si>
+  <si>
+    <t>SECIL.Portugal.Cement.Maceira.400 - Clinker Production.432 - Kiln.Normalised.Asset.Equipment.Alternative Fuels Feeder 01.Selected</t>
+  </si>
+  <si>
+    <t>SECIL.Portugal.Cement.Maceira.400 - Clinker Production.432 - Kiln.Normalised.Asset.Equipment.Alternative Fuels Feeder 01.Input Material.Feed to Production Factor</t>
+  </si>
+  <si>
+    <t>SECIL.Portugal.Cement.Maceira.400 - Clinker Production.432 - Kiln.Normalised.Asset.Equipment.LCC Feeder 01.Feed</t>
+  </si>
+  <si>
+    <t>SECIL.Portugal.Cement.Maceira.400 - Clinker Production.432 - Kiln.Normalised.Asset.Equipment.LCC Feeder 01.Running</t>
+  </si>
+  <si>
+    <t>SECIL.Portugal.Cement.Maceira.400 - Clinker Production.432 - Kiln.Normalised.Asset.Equipment.LCC Feeder 01.Selected</t>
+  </si>
+  <si>
+    <t>SECIL.Portugal.Cement.Maceira.400 - Clinker Production.432 - Kiln.Normalised.Asset.Equipment.LCC Feeder 01.Input Material.Feed to Production Factor</t>
+  </si>
+  <si>
+    <t>SECIL.Portugal.Cement.Maceira.400 - Clinker Production.432 - Kiln.Normalised.Analog.FO6PT_6387.Value</t>
+  </si>
+  <si>
+    <t>SECIL.Portugal.Cement.Maceira.400 - Clinker Production.432 - Kiln.Normalised.Analog.FO6PT_6368.Value</t>
+  </si>
+  <si>
+    <t>SECIL.Portugal.Cement.Maceira.400 - Clinker Production.432 - Kiln.Normalised.Analog.FO6PT_6372.Value</t>
+  </si>
+  <si>
+    <t>SECIL.Portugal.Cement.Maceira.400 - Clinker Production.431 - Kiln.Normalised.Analog.FO5PT_387.Value</t>
+  </si>
+  <si>
+    <t>SECIL.Portugal.Cement.Maceira.400 - Clinker Production.431 - Kiln.Normalised.Analog.FO5PT_368.Value</t>
+  </si>
+  <si>
+    <t>SECIL.Portugal.Cement.Maceira.400 - Clinker Production.431 - Kiln.Normalised.Analog.FO5PT_372.Value</t>
   </si>
 </sst>
 </file>
@@ -449,10 +448,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -775,295 +770,295 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="154.42578125" customWidth="1"/>
-    <col min="2" max="2" width="53.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="154.453125" customWidth="1"/>
+    <col min="2" max="2" width="53.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="12"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="C23" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C24" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="C25" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="C27" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="C28" s="6" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
